--- a/Microsoft 365/Current Channel/outlookrssitemcontrols.xlsx
+++ b/Microsoft 365/Current Channel/outlookrssitemcontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcoard\OneDrive - Microsoft\Documents\RibbonX Upload\CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RibbonXThing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1294C269-A1AE-4A4B-9128-3AE7B38A1E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49054B32-00EF-4883-9E11-21DA0AB0FE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="23325"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="outlookrssitemcontrols" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13256" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13271" uniqueCount="1109">
   <si>
     <t>Policy ID</t>
   </si>
@@ -2836,9 +2836,15 @@
     <t>Insert3DModelFromFile</t>
   </si>
   <si>
+    <t>Insert3DModelFromFileConsumer</t>
+  </si>
+  <si>
     <t>Insert3DModelFromOnline</t>
   </si>
   <si>
+    <t>Insert3DModelFromOnlineConsumer</t>
+  </si>
+  <si>
     <t>Reset3DModelSplitButton</t>
   </si>
   <si>
@@ -3221,6 +3227,9 @@
   </si>
   <si>
     <t>OutlookFeedbackUIF</t>
+  </si>
+  <si>
+    <t>OfficeFeedbackBackstage</t>
   </si>
   <si>
     <t>ContextMenuMailMoreActions</t>
@@ -3348,21 +3357,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -3370,7 +3379,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3378,7 +3387,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3386,35 +3395,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3422,7 +3431,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3430,14 +3439,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3445,14 +3454,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3460,7 +3469,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3468,14 +3477,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3882,8 +3891,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I2388" totalsRowShown="0">
-  <autoFilter ref="A1:I2388"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I2391" totalsRowShown="0">
+  <autoFilter ref="A1:I2391"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Control Name"/>
     <tableColumn id="2" name="Control Type"/>
@@ -3910,39 +3919,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3994,7 +4003,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4105,13 +4114,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -4120,6 +4122,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4184,11 +4193,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4196,7 +4225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2388"/>
+  <dimension ref="A1:I2391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -4204,15 +4233,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4241,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -50414,7 +50443,7 @@
         <v>935</v>
       </c>
       <c r="H2119">
-        <v>27815</v>
+        <v>34830</v>
       </c>
     </row>
     <row r="2120" spans="1:8" x14ac:dyDescent="0.25">
@@ -50422,7 +50451,7 @@
         <v>939</v>
       </c>
       <c r="B2120" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C2120" t="s">
         <v>931</v>
@@ -50433,8 +50462,11 @@
       <c r="E2120" t="s">
         <v>933</v>
       </c>
+      <c r="F2120" t="s">
+        <v>935</v>
+      </c>
       <c r="H2120">
-        <v>27845</v>
+        <v>27815</v>
       </c>
     </row>
     <row r="2121" spans="1:8" x14ac:dyDescent="0.25">
@@ -50454,10 +50486,10 @@
         <v>933</v>
       </c>
       <c r="F2121" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H2121">
-        <v>27846</v>
+        <v>34831</v>
       </c>
     </row>
     <row r="2122" spans="1:8" x14ac:dyDescent="0.25">
@@ -50465,7 +50497,7 @@
         <v>941</v>
       </c>
       <c r="B2122" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C2122" t="s">
         <v>931</v>
@@ -50476,11 +50508,8 @@
       <c r="E2122" t="s">
         <v>933</v>
       </c>
-      <c r="F2122" t="s">
-        <v>939</v>
-      </c>
       <c r="H2122">
-        <v>27847</v>
+        <v>27845</v>
       </c>
     </row>
     <row r="2123" spans="1:8" x14ac:dyDescent="0.25">
@@ -50488,7 +50517,7 @@
         <v>942</v>
       </c>
       <c r="B2123" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2123" t="s">
         <v>931</v>
@@ -50496,8 +50525,14 @@
       <c r="D2123" t="s">
         <v>932</v>
       </c>
+      <c r="E2123" t="s">
+        <v>933</v>
+      </c>
+      <c r="F2123" t="s">
+        <v>941</v>
+      </c>
       <c r="H2123">
-        <v>27843</v>
+        <v>27846</v>
       </c>
     </row>
     <row r="2124" spans="1:8" x14ac:dyDescent="0.25">
@@ -50505,7 +50540,7 @@
         <v>943</v>
       </c>
       <c r="B2124" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2124" t="s">
         <v>931</v>
@@ -50514,10 +50549,13 @@
         <v>932</v>
       </c>
       <c r="E2124" t="s">
-        <v>942</v>
+        <v>933</v>
+      </c>
+      <c r="F2124" t="s">
+        <v>941</v>
       </c>
       <c r="H2124">
-        <v>27891</v>
+        <v>27847</v>
       </c>
     </row>
     <row r="2125" spans="1:8" x14ac:dyDescent="0.25">
@@ -50525,7 +50563,7 @@
         <v>944</v>
       </c>
       <c r="B2125" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C2125" t="s">
         <v>931</v>
@@ -50533,19 +50571,16 @@
       <c r="D2125" t="s">
         <v>932</v>
       </c>
-      <c r="E2125" t="s">
-        <v>942</v>
-      </c>
       <c r="H2125">
-        <v>27848</v>
+        <v>27843</v>
       </c>
     </row>
     <row r="2126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2126" t="s">
-        <v>444</v>
+        <v>945</v>
       </c>
       <c r="B2126" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C2126" t="s">
         <v>931</v>
@@ -50553,16 +50588,19 @@
       <c r="D2126" t="s">
         <v>932</v>
       </c>
+      <c r="E2126" t="s">
+        <v>944</v>
+      </c>
       <c r="H2126">
-        <v>33176</v>
+        <v>27891</v>
       </c>
     </row>
     <row r="2127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2127" t="s">
-        <v>445</v>
+        <v>946</v>
       </c>
       <c r="B2127" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C2127" t="s">
         <v>931</v>
@@ -50571,15 +50609,15 @@
         <v>932</v>
       </c>
       <c r="E2127" t="s">
-        <v>444</v>
+        <v>944</v>
       </c>
       <c r="H2127">
-        <v>33177</v>
+        <v>27848</v>
       </c>
     </row>
     <row r="2128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2128" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B2128" t="s">
         <v>31</v>
@@ -50591,15 +50629,15 @@
         <v>932</v>
       </c>
       <c r="H2128">
-        <v>11581</v>
+        <v>33176</v>
       </c>
     </row>
     <row r="2129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2129" t="s">
-        <v>692</v>
+        <v>445</v>
       </c>
       <c r="B2129" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2129" t="s">
         <v>931</v>
@@ -50608,18 +50646,18 @@
         <v>932</v>
       </c>
       <c r="E2129" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H2129">
-        <v>13142</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="2130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2130" t="s">
-        <v>623</v>
+        <v>446</v>
       </c>
       <c r="B2130" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2130" t="s">
         <v>931</v>
@@ -50627,19 +50665,13 @@
       <c r="D2130" t="s">
         <v>932</v>
       </c>
-      <c r="E2130" t="s">
-        <v>446</v>
-      </c>
-      <c r="F2130" t="s">
-        <v>692</v>
-      </c>
       <c r="H2130">
-        <v>21603</v>
+        <v>11581</v>
       </c>
     </row>
     <row r="2131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2131" t="s">
-        <v>447</v>
+        <v>692</v>
       </c>
       <c r="B2131" t="s">
         <v>24</v>
@@ -50654,15 +50686,15 @@
         <v>446</v>
       </c>
       <c r="H2131">
-        <v>18323</v>
+        <v>13142</v>
       </c>
     </row>
     <row r="2132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2132" t="s">
-        <v>923</v>
+        <v>623</v>
       </c>
       <c r="B2132" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="C2132" t="s">
         <v>931</v>
@@ -50674,18 +50706,18 @@
         <v>446</v>
       </c>
       <c r="F2132" t="s">
-        <v>447</v>
+        <v>692</v>
       </c>
       <c r="H2132">
-        <v>24601</v>
+        <v>21603</v>
       </c>
     </row>
     <row r="2133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2133" t="s">
-        <v>924</v>
+        <v>447</v>
       </c>
       <c r="B2133" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="C2133" t="s">
         <v>931</v>
@@ -50696,19 +50728,16 @@
       <c r="E2133" t="s">
         <v>446</v>
       </c>
-      <c r="F2133" t="s">
-        <v>447</v>
-      </c>
       <c r="H2133">
-        <v>24602</v>
+        <v>18323</v>
       </c>
     </row>
     <row r="2134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2134" t="s">
-        <v>448</v>
+        <v>923</v>
       </c>
       <c r="B2134" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C2134" t="s">
         <v>931</v>
@@ -50723,15 +50752,15 @@
         <v>447</v>
       </c>
       <c r="H2134">
-        <v>21604</v>
+        <v>24601</v>
       </c>
     </row>
     <row r="2135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2135" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B2135" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C2135" t="s">
         <v>931</v>
@@ -50746,15 +50775,15 @@
         <v>447</v>
       </c>
       <c r="H2135">
-        <v>24603</v>
+        <v>24602</v>
       </c>
     </row>
     <row r="2136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2136" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B2136" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C2136" t="s">
         <v>931</v>
@@ -50765,13 +50794,16 @@
       <c r="E2136" t="s">
         <v>446</v>
       </c>
+      <c r="F2136" t="s">
+        <v>447</v>
+      </c>
       <c r="H2136">
-        <v>17239</v>
+        <v>21604</v>
       </c>
     </row>
     <row r="2137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2137" t="s">
-        <v>225</v>
+        <v>925</v>
       </c>
       <c r="B2137" t="s">
         <v>9</v>
@@ -50786,18 +50818,18 @@
         <v>446</v>
       </c>
       <c r="F2137" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H2137">
-        <v>170</v>
+        <v>24603</v>
       </c>
     </row>
     <row r="2138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2138" t="s">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="B2138" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C2138" t="s">
         <v>931</v>
@@ -50808,16 +50840,13 @@
       <c r="E2138" t="s">
         <v>446</v>
       </c>
-      <c r="F2138" t="s">
-        <v>449</v>
-      </c>
       <c r="H2138">
-        <v>166</v>
+        <v>17239</v>
       </c>
     </row>
     <row r="2139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2139" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B2139" t="s">
         <v>9</v>
@@ -50835,15 +50864,15 @@
         <v>449</v>
       </c>
       <c r="H2139">
-        <v>3451</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2140" t="s">
-        <v>450</v>
+        <v>226</v>
       </c>
       <c r="B2140" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C2140" t="s">
         <v>931</v>
@@ -50854,13 +50883,16 @@
       <c r="E2140" t="s">
         <v>446</v>
       </c>
+      <c r="F2140" t="s">
+        <v>449</v>
+      </c>
       <c r="H2140">
-        <v>17240</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2141" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2141" t="s">
         <v>9</v>
@@ -50875,18 +50907,18 @@
         <v>446</v>
       </c>
       <c r="F2141" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H2141">
-        <v>171</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="2142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2142" t="s">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="B2142" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C2142" t="s">
         <v>931</v>
@@ -50897,16 +50929,13 @@
       <c r="E2142" t="s">
         <v>446</v>
       </c>
-      <c r="F2142" t="s">
-        <v>450</v>
-      </c>
       <c r="H2142">
-        <v>167</v>
+        <v>17240</v>
       </c>
     </row>
     <row r="2143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2143" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B2143" t="s">
         <v>9</v>
@@ -50924,15 +50953,15 @@
         <v>450</v>
       </c>
       <c r="H2143">
-        <v>3452</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2144" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="B2144" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2144" t="s">
         <v>931</v>
@@ -50943,16 +50972,19 @@
       <c r="E2144" t="s">
         <v>446</v>
       </c>
+      <c r="F2144" t="s">
+        <v>450</v>
+      </c>
       <c r="H2144">
-        <v>13244</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2145" t="s">
-        <v>451</v>
+        <v>231</v>
       </c>
       <c r="B2145" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2145" t="s">
         <v>931</v>
@@ -50963,16 +50995,19 @@
       <c r="E2145" t="s">
         <v>446</v>
       </c>
+      <c r="F2145" t="s">
+        <v>450</v>
+      </c>
       <c r="H2145">
-        <v>11920</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="2146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2146" t="s">
-        <v>452</v>
+        <v>120</v>
       </c>
       <c r="B2146" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2146" t="s">
         <v>931</v>
@@ -50983,19 +51018,16 @@
       <c r="E2146" t="s">
         <v>446</v>
       </c>
-      <c r="F2146" t="s">
-        <v>451</v>
-      </c>
       <c r="H2146">
-        <v>12784</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="2147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2147" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B2147" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2147" t="s">
         <v>931</v>
@@ -51006,16 +51038,13 @@
       <c r="E2147" t="s">
         <v>446</v>
       </c>
-      <c r="F2147" t="s">
-        <v>451</v>
-      </c>
       <c r="H2147">
-        <v>12788</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="2148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2148" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B2148" t="s">
         <v>9</v>
@@ -51033,12 +51062,12 @@
         <v>451</v>
       </c>
       <c r="H2148">
-        <v>12785</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="2149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2149" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B2149" t="s">
         <v>9</v>
@@ -51056,12 +51085,12 @@
         <v>451</v>
       </c>
       <c r="H2149">
-        <v>12786</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="2150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2150" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B2150" t="s">
         <v>9</v>
@@ -51079,12 +51108,12 @@
         <v>451</v>
       </c>
       <c r="H2150">
-        <v>12789</v>
+        <v>12785</v>
       </c>
     </row>
     <row r="2151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2151" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2151" t="s">
         <v>9</v>
@@ -51102,12 +51131,12 @@
         <v>451</v>
       </c>
       <c r="H2151">
-        <v>12787</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="2152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2152" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B2152" t="s">
         <v>9</v>
@@ -51125,12 +51154,12 @@
         <v>451</v>
       </c>
       <c r="H2152">
-        <v>12790</v>
+        <v>12789</v>
       </c>
     </row>
     <row r="2153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2153" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B2153" t="s">
         <v>9</v>
@@ -51148,15 +51177,15 @@
         <v>451</v>
       </c>
       <c r="H2153">
-        <v>12791</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="2154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2154" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B2154" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2154" t="s">
         <v>931</v>
@@ -51171,15 +51200,15 @@
         <v>451</v>
       </c>
       <c r="H2154">
-        <v>12783</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="2155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2155" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B2155" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2155" t="s">
         <v>931</v>
@@ -51194,12 +51223,12 @@
         <v>451</v>
       </c>
       <c r="H2155">
-        <v>14469</v>
+        <v>12791</v>
       </c>
     </row>
     <row r="2156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2156" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B2156" t="s">
         <v>26</v>
@@ -51217,15 +51246,15 @@
         <v>451</v>
       </c>
       <c r="H2156">
-        <v>12782</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="2157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2157" t="s">
-        <v>927</v>
+        <v>461</v>
       </c>
       <c r="B2157" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="C2157" t="s">
         <v>931</v>
@@ -51240,15 +51269,15 @@
         <v>451</v>
       </c>
       <c r="H2157">
-        <v>24267</v>
+        <v>14469</v>
       </c>
     </row>
     <row r="2158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2158" t="s">
-        <v>928</v>
+        <v>462</v>
       </c>
       <c r="B2158" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="C2158" t="s">
         <v>931</v>
@@ -51263,15 +51292,15 @@
         <v>451</v>
       </c>
       <c r="H2158">
-        <v>300</v>
+        <v>12782</v>
       </c>
     </row>
     <row r="2159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2159" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B2159" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C2159" t="s">
         <v>931</v>
@@ -51286,15 +51315,15 @@
         <v>451</v>
       </c>
       <c r="H2159">
-        <v>217</v>
+        <v>24267</v>
       </c>
     </row>
     <row r="2160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2160" t="s">
-        <v>463</v>
+        <v>928</v>
       </c>
       <c r="B2160" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C2160" t="s">
         <v>931</v>
@@ -51305,13 +51334,16 @@
       <c r="E2160" t="s">
         <v>446</v>
       </c>
+      <c r="F2160" t="s">
+        <v>451</v>
+      </c>
       <c r="H2160">
-        <v>14409</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2161" t="s">
-        <v>464</v>
+        <v>929</v>
       </c>
       <c r="B2161" t="s">
         <v>9</v>
@@ -51326,18 +51358,18 @@
         <v>446</v>
       </c>
       <c r="F2161" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="H2161">
-        <v>164</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2162" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B2162" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2162" t="s">
         <v>931</v>
@@ -51348,16 +51380,13 @@
       <c r="E2162" t="s">
         <v>446</v>
       </c>
-      <c r="F2162" t="s">
-        <v>463</v>
-      </c>
       <c r="H2162">
-        <v>338</v>
+        <v>14409</v>
       </c>
     </row>
     <row r="2163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2163" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B2163" t="s">
         <v>9</v>
@@ -51375,15 +51404,15 @@
         <v>463</v>
       </c>
       <c r="H2163">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2164" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B2164" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2164" t="s">
         <v>931</v>
@@ -51394,13 +51423,16 @@
       <c r="E2164" t="s">
         <v>446</v>
       </c>
+      <c r="F2164" t="s">
+        <v>463</v>
+      </c>
       <c r="H2164">
-        <v>16073</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2165" t="s">
-        <v>226</v>
+        <v>466</v>
       </c>
       <c r="B2165" t="s">
         <v>9</v>
@@ -51415,18 +51447,18 @@
         <v>446</v>
       </c>
       <c r="F2165" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H2165">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2166" t="s">
-        <v>225</v>
+        <v>469</v>
       </c>
       <c r="B2166" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2166" t="s">
         <v>931</v>
@@ -51437,16 +51469,13 @@
       <c r="E2166" t="s">
         <v>446</v>
       </c>
-      <c r="F2166" t="s">
-        <v>469</v>
-      </c>
       <c r="H2166">
-        <v>170</v>
+        <v>16073</v>
       </c>
     </row>
     <row r="2167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2167" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B2167" t="s">
         <v>9</v>
@@ -51464,12 +51493,12 @@
         <v>469</v>
       </c>
       <c r="H2167">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2168" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B2168" t="s">
         <v>9</v>
@@ -51487,12 +51516,12 @@
         <v>469</v>
       </c>
       <c r="H2168">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2169" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B2169" t="s">
         <v>9</v>
@@ -51510,12 +51539,12 @@
         <v>469</v>
       </c>
       <c r="H2169">
-        <v>3451</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2170" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B2170" t="s">
         <v>9</v>
@@ -51533,12 +51562,12 @@
         <v>469</v>
       </c>
       <c r="H2170">
-        <v>3452</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2171" t="s">
-        <v>464</v>
+        <v>227</v>
       </c>
       <c r="B2171" t="s">
         <v>9</v>
@@ -51556,12 +51585,12 @@
         <v>469</v>
       </c>
       <c r="H2171">
-        <v>164</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="2172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2172" t="s">
-        <v>466</v>
+        <v>231</v>
       </c>
       <c r="B2172" t="s">
         <v>9</v>
@@ -51579,12 +51608,12 @@
         <v>469</v>
       </c>
       <c r="H2172">
-        <v>165</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="2173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2173" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2173" t="s">
         <v>9</v>
@@ -51602,15 +51631,15 @@
         <v>469</v>
       </c>
       <c r="H2173">
-        <v>338</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2174" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="B2174" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2174" t="s">
         <v>931</v>
@@ -51625,12 +51654,12 @@
         <v>469</v>
       </c>
       <c r="H2174">
-        <v>11920</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2175" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B2175" t="s">
         <v>9</v>
@@ -51647,19 +51676,16 @@
       <c r="F2175" t="s">
         <v>469</v>
       </c>
-      <c r="G2175" t="s">
-        <v>451</v>
-      </c>
       <c r="H2175">
-        <v>12784</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2176" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B2176" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2176" t="s">
         <v>931</v>
@@ -51673,16 +51699,13 @@
       <c r="F2176" t="s">
         <v>469</v>
       </c>
-      <c r="G2176" t="s">
-        <v>451</v>
-      </c>
       <c r="H2176">
-        <v>12788</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="2177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2177" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B2177" t="s">
         <v>9</v>
@@ -51703,12 +51726,12 @@
         <v>451</v>
       </c>
       <c r="H2177">
-        <v>12785</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="2178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2178" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B2178" t="s">
         <v>9</v>
@@ -51729,12 +51752,12 @@
         <v>451</v>
       </c>
       <c r="H2178">
-        <v>12786</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="2179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2179" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B2179" t="s">
         <v>9</v>
@@ -51755,12 +51778,12 @@
         <v>451</v>
       </c>
       <c r="H2179">
-        <v>12789</v>
+        <v>12785</v>
       </c>
     </row>
     <row r="2180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2180" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2180" t="s">
         <v>9</v>
@@ -51781,12 +51804,12 @@
         <v>451</v>
       </c>
       <c r="H2180">
-        <v>12787</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="2181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2181" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B2181" t="s">
         <v>9</v>
@@ -51807,12 +51830,12 @@
         <v>451</v>
       </c>
       <c r="H2181">
-        <v>12790</v>
+        <v>12789</v>
       </c>
     </row>
     <row r="2182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2182" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B2182" t="s">
         <v>9</v>
@@ -51833,15 +51856,15 @@
         <v>451</v>
       </c>
       <c r="H2182">
-        <v>12791</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="2183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2183" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B2183" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2183" t="s">
         <v>931</v>
@@ -51859,15 +51882,15 @@
         <v>451</v>
       </c>
       <c r="H2183">
-        <v>12783</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="2184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2184" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B2184" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2184" t="s">
         <v>931</v>
@@ -51885,12 +51908,12 @@
         <v>451</v>
       </c>
       <c r="H2184">
-        <v>14469</v>
+        <v>12791</v>
       </c>
     </row>
     <row r="2185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2185" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B2185" t="s">
         <v>26</v>
@@ -51911,15 +51934,15 @@
         <v>451</v>
       </c>
       <c r="H2185">
-        <v>12782</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="2186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2186" t="s">
-        <v>927</v>
+        <v>461</v>
       </c>
       <c r="B2186" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="C2186" t="s">
         <v>931</v>
@@ -51937,15 +51960,15 @@
         <v>451</v>
       </c>
       <c r="H2186">
-        <v>24267</v>
+        <v>14469</v>
       </c>
     </row>
     <row r="2187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2187" t="s">
-        <v>928</v>
+        <v>462</v>
       </c>
       <c r="B2187" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="C2187" t="s">
         <v>931</v>
@@ -51963,15 +51986,15 @@
         <v>451</v>
       </c>
       <c r="H2187">
-        <v>300</v>
+        <v>12782</v>
       </c>
     </row>
     <row r="2188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2188" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B2188" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C2188" t="s">
         <v>931</v>
@@ -51989,15 +52012,15 @@
         <v>451</v>
       </c>
       <c r="H2188">
-        <v>217</v>
+        <v>24267</v>
       </c>
     </row>
     <row r="2189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2189" t="s">
-        <v>120</v>
+        <v>928</v>
       </c>
       <c r="B2189" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="C2189" t="s">
         <v>931</v>
@@ -52011,16 +52034,19 @@
       <c r="F2189" t="s">
         <v>469</v>
       </c>
+      <c r="G2189" t="s">
+        <v>451</v>
+      </c>
       <c r="H2189">
-        <v>13244</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2190" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="B2190" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2190" t="s">
         <v>931</v>
@@ -52028,13 +52054,22 @@
       <c r="D2190" t="s">
         <v>932</v>
       </c>
+      <c r="E2190" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2190" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>451</v>
+      </c>
       <c r="H2190">
-        <v>27844</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2191" t="s">
-        <v>946</v>
+        <v>120</v>
       </c>
       <c r="B2191" t="s">
         <v>26</v>
@@ -52046,18 +52081,21 @@
         <v>932</v>
       </c>
       <c r="E2191" t="s">
-        <v>945</v>
+        <v>446</v>
+      </c>
+      <c r="F2191" t="s">
+        <v>469</v>
       </c>
       <c r="H2191">
-        <v>27938</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="2192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2192" t="s">
-        <v>471</v>
+        <v>947</v>
       </c>
       <c r="B2192" t="s">
-        <v>472</v>
+        <v>31</v>
       </c>
       <c r="C2192" t="s">
         <v>931</v>
@@ -52065,19 +52103,16 @@
       <c r="D2192" t="s">
         <v>932</v>
       </c>
-      <c r="E2192" t="s">
-        <v>945</v>
-      </c>
       <c r="H2192">
-        <v>13915</v>
+        <v>27844</v>
       </c>
     </row>
     <row r="2193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2193" t="s">
-        <v>473</v>
+        <v>948</v>
       </c>
       <c r="B2193" t="s">
-        <v>472</v>
+        <v>26</v>
       </c>
       <c r="C2193" t="s">
         <v>931</v>
@@ -52086,18 +52121,18 @@
         <v>932</v>
       </c>
       <c r="E2193" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H2193">
-        <v>13916</v>
+        <v>27938</v>
       </c>
     </row>
     <row r="2194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2194" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B2194" t="s">
-        <v>58</v>
+        <v>472</v>
       </c>
       <c r="C2194" t="s">
         <v>931</v>
@@ -52106,35 +52141,50 @@
         <v>932</v>
       </c>
       <c r="E2194" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H2194">
-        <v>21605</v>
+        <v>13915</v>
       </c>
     </row>
     <row r="2195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2195" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>931</v>
+      </c>
+      <c r="D2195" t="s">
+        <v>932</v>
+      </c>
+      <c r="E2195" t="s">
         <v>947</v>
       </c>
-      <c r="B2195" t="s">
-        <v>341</v>
-      </c>
       <c r="H2195">
-        <v>34010</v>
+        <v>13916</v>
       </c>
     </row>
     <row r="2196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2196" t="s">
-        <v>948</v>
+        <v>474</v>
       </c>
       <c r="B2196" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C2196" t="s">
+        <v>931</v>
+      </c>
+      <c r="D2196" t="s">
+        <v>932</v>
+      </c>
+      <c r="E2196" t="s">
         <v>947</v>
       </c>
       <c r="H2196">
-        <v>34011</v>
+        <v>21605</v>
       </c>
     </row>
     <row r="2197" spans="1:8" x14ac:dyDescent="0.25">
@@ -52142,16 +52192,10 @@
         <v>949</v>
       </c>
       <c r="B2197" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2197" t="s">
-        <v>947</v>
-      </c>
-      <c r="D2197" t="s">
-        <v>948</v>
+        <v>341</v>
       </c>
       <c r="H2197">
-        <v>34013</v>
+        <v>34010</v>
       </c>
     </row>
     <row r="2198" spans="1:8" x14ac:dyDescent="0.25">
@@ -52159,19 +52203,13 @@
         <v>950</v>
       </c>
       <c r="B2198" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C2198" t="s">
-        <v>947</v>
-      </c>
-      <c r="D2198" t="s">
-        <v>948</v>
-      </c>
-      <c r="E2198" t="s">
         <v>949</v>
       </c>
       <c r="H2198">
-        <v>19666</v>
+        <v>34011</v>
       </c>
     </row>
     <row r="2199" spans="1:8" x14ac:dyDescent="0.25">
@@ -52182,13 +52220,13 @@
         <v>31</v>
       </c>
       <c r="C2199" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2199" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H2199">
-        <v>34390</v>
+        <v>34013</v>
       </c>
     </row>
     <row r="2200" spans="1:8" x14ac:dyDescent="0.25">
@@ -52196,19 +52234,19 @@
         <v>952</v>
       </c>
       <c r="B2200" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2200" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2200" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2200" t="s">
         <v>951</v>
       </c>
       <c r="H2200">
-        <v>11949</v>
+        <v>19666</v>
       </c>
     </row>
     <row r="2201" spans="1:8" x14ac:dyDescent="0.25">
@@ -52216,22 +52254,16 @@
         <v>953</v>
       </c>
       <c r="B2201" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2201" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2201" t="s">
-        <v>948</v>
-      </c>
-      <c r="E2201" t="s">
-        <v>951</v>
-      </c>
-      <c r="F2201" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H2201">
-        <v>1005</v>
+        <v>34390</v>
       </c>
     </row>
     <row r="2202" spans="1:8" x14ac:dyDescent="0.25">
@@ -52242,16 +52274,16 @@
         <v>24</v>
       </c>
       <c r="C2202" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2202" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2202" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H2202">
-        <v>13926</v>
+        <v>11949</v>
       </c>
     </row>
     <row r="2203" spans="1:8" x14ac:dyDescent="0.25">
@@ -52262,105 +52294,105 @@
         <v>9</v>
       </c>
       <c r="C2203" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2203" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2203" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2203" t="s">
         <v>954</v>
       </c>
       <c r="H2203">
-        <v>13931</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2204" t="s">
-        <v>802</v>
+        <v>956</v>
       </c>
       <c r="B2204" t="s">
         <v>24</v>
       </c>
       <c r="C2204" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2204" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2204" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H2204">
-        <v>13162</v>
+        <v>13926</v>
       </c>
     </row>
     <row r="2205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2205" t="s">
-        <v>803</v>
+        <v>957</v>
       </c>
       <c r="B2205" t="s">
         <v>9</v>
       </c>
       <c r="C2205" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2205" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2205" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2205" t="s">
-        <v>802</v>
+        <v>956</v>
       </c>
       <c r="H2205">
-        <v>13163</v>
+        <v>13931</v>
       </c>
     </row>
     <row r="2206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2206" t="s">
-        <v>956</v>
+        <v>802</v>
       </c>
       <c r="B2206" t="s">
         <v>24</v>
       </c>
       <c r="C2206" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2206" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2206" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H2206">
-        <v>13927</v>
+        <v>13162</v>
       </c>
     </row>
     <row r="2207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2207" t="s">
-        <v>957</v>
+        <v>803</v>
       </c>
       <c r="B2207" t="s">
         <v>9</v>
       </c>
       <c r="C2207" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2207" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2207" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2207" t="s">
-        <v>956</v>
+        <v>802</v>
       </c>
       <c r="H2207">
-        <v>2857</v>
+        <v>13163</v>
       </c>
     </row>
     <row r="2208" spans="1:8" x14ac:dyDescent="0.25">
@@ -52368,22 +52400,19 @@
         <v>958</v>
       </c>
       <c r="B2208" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2208" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2208" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2208" t="s">
-        <v>951</v>
-      </c>
-      <c r="F2208" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="H2208">
-        <v>2858</v>
+        <v>13927</v>
       </c>
     </row>
     <row r="2209" spans="1:8" x14ac:dyDescent="0.25">
@@ -52391,19 +52420,22 @@
         <v>959</v>
       </c>
       <c r="B2209" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2209" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2209" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2209" t="s">
-        <v>951</v>
+        <v>953</v>
+      </c>
+      <c r="F2209" t="s">
+        <v>958</v>
       </c>
       <c r="H2209">
-        <v>15927</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="2210" spans="1:8" x14ac:dyDescent="0.25">
@@ -52411,22 +52443,22 @@
         <v>960</v>
       </c>
       <c r="B2210" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2210" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2210" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2210" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2210" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H2210">
-        <v>11738</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="2211" spans="1:8" x14ac:dyDescent="0.25">
@@ -52434,25 +52466,19 @@
         <v>961</v>
       </c>
       <c r="B2211" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2211" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2211" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2211" t="s">
-        <v>951</v>
-      </c>
-      <c r="F2211" t="s">
-        <v>959</v>
-      </c>
-      <c r="G2211" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="H2211">
-        <v>14785</v>
+        <v>15927</v>
       </c>
     </row>
     <row r="2212" spans="1:8" x14ac:dyDescent="0.25">
@@ -52460,25 +52486,22 @@
         <v>962</v>
       </c>
       <c r="B2212" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2212" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2212" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2212" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2212" t="s">
-        <v>959</v>
-      </c>
-      <c r="G2212" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H2212">
-        <v>13090</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="2213" spans="1:8" x14ac:dyDescent="0.25">
@@ -52486,22 +52509,25 @@
         <v>963</v>
       </c>
       <c r="B2213" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2213" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2213" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2213" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2213" t="s">
-        <v>959</v>
+        <v>961</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>962</v>
       </c>
       <c r="H2213">
-        <v>12245</v>
+        <v>14785</v>
       </c>
     </row>
     <row r="2214" spans="1:8" x14ac:dyDescent="0.25">
@@ -52512,22 +52538,22 @@
         <v>9</v>
       </c>
       <c r="C2214" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2214" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2214" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2214" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G2214" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2214">
-        <v>12680</v>
+        <v>13090</v>
       </c>
     </row>
     <row r="2215" spans="1:8" x14ac:dyDescent="0.25">
@@ -52538,19 +52564,19 @@
         <v>24</v>
       </c>
       <c r="C2215" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2215" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2215" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2215" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="H2215">
-        <v>12863</v>
+        <v>12245</v>
       </c>
     </row>
     <row r="2216" spans="1:8" x14ac:dyDescent="0.25">
@@ -52561,22 +52587,22 @@
         <v>9</v>
       </c>
       <c r="C2216" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2216" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2216" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2216" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G2216" t="s">
         <v>965</v>
       </c>
       <c r="H2216">
-        <v>12681</v>
+        <v>12680</v>
       </c>
     </row>
     <row r="2217" spans="1:8" x14ac:dyDescent="0.25">
@@ -52587,19 +52613,19 @@
         <v>24</v>
       </c>
       <c r="C2217" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2217" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2217" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2217" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="H2217">
-        <v>16703</v>
+        <v>12863</v>
       </c>
     </row>
     <row r="2218" spans="1:8" x14ac:dyDescent="0.25">
@@ -52610,22 +52636,22 @@
         <v>9</v>
       </c>
       <c r="C2218" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2218" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2218" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2218" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G2218" t="s">
         <v>967</v>
       </c>
       <c r="H2218">
-        <v>16712</v>
+        <v>12681</v>
       </c>
     </row>
     <row r="2219" spans="1:8" x14ac:dyDescent="0.25">
@@ -52633,22 +52659,22 @@
         <v>969</v>
       </c>
       <c r="B2219" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2219" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2219" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2219" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F2219" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="H2219">
-        <v>15361</v>
+        <v>16703</v>
       </c>
     </row>
     <row r="2220" spans="1:8" x14ac:dyDescent="0.25">
@@ -52656,19 +52682,25 @@
         <v>970</v>
       </c>
       <c r="B2220" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C2220" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2220" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2220" t="s">
-        <v>951</v>
+        <v>953</v>
+      </c>
+      <c r="F2220" t="s">
+        <v>961</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>969</v>
       </c>
       <c r="H2220">
-        <v>34391</v>
+        <v>16712</v>
       </c>
     </row>
     <row r="2221" spans="1:8" x14ac:dyDescent="0.25">
@@ -52676,16 +52708,22 @@
         <v>971</v>
       </c>
       <c r="B2221" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2221" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2221" t="s">
-        <v>948</v>
+        <v>950</v>
+      </c>
+      <c r="E2221" t="s">
+        <v>953</v>
+      </c>
+      <c r="F2221" t="s">
+        <v>961</v>
       </c>
       <c r="H2221">
-        <v>34392</v>
+        <v>15361</v>
       </c>
     </row>
     <row r="2222" spans="1:8" x14ac:dyDescent="0.25">
@@ -52693,19 +52731,19 @@
         <v>972</v>
       </c>
       <c r="B2222" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C2222" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2222" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2222" t="s">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="H2222">
-        <v>11737</v>
+        <v>34391</v>
       </c>
     </row>
     <row r="2223" spans="1:8" x14ac:dyDescent="0.25">
@@ -52713,22 +52751,16 @@
         <v>973</v>
       </c>
       <c r="B2223" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2223" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2223" t="s">
-        <v>948</v>
-      </c>
-      <c r="E2223" t="s">
-        <v>971</v>
-      </c>
-      <c r="F2223" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="H2223">
-        <v>13086</v>
+        <v>34392</v>
       </c>
     </row>
     <row r="2224" spans="1:8" x14ac:dyDescent="0.25">
@@ -52736,22 +52768,19 @@
         <v>974</v>
       </c>
       <c r="B2224" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2224" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2224" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2224" t="s">
-        <v>971</v>
-      </c>
-      <c r="F2224" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H2224">
-        <v>11739</v>
+        <v>11737</v>
       </c>
     </row>
     <row r="2225" spans="1:8" x14ac:dyDescent="0.25">
@@ -52759,22 +52788,22 @@
         <v>975</v>
       </c>
       <c r="B2225" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2225" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2225" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2225" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F2225" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="H2225">
-        <v>13367</v>
+        <v>13086</v>
       </c>
     </row>
     <row r="2226" spans="1:8" x14ac:dyDescent="0.25">
@@ -52782,19 +52811,22 @@
         <v>976</v>
       </c>
       <c r="B2226" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2226" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2226" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2226" t="s">
-        <v>971</v>
+        <v>973</v>
+      </c>
+      <c r="F2226" t="s">
+        <v>974</v>
       </c>
       <c r="H2226">
-        <v>11749</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="2227" spans="1:8" x14ac:dyDescent="0.25">
@@ -52802,22 +52834,22 @@
         <v>977</v>
       </c>
       <c r="B2227" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2227" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2227" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2227" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F2227" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H2227">
-        <v>13346</v>
+        <v>13367</v>
       </c>
     </row>
     <row r="2228" spans="1:8" x14ac:dyDescent="0.25">
@@ -52825,22 +52857,19 @@
         <v>978</v>
       </c>
       <c r="B2228" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2228" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2228" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2228" t="s">
-        <v>971</v>
-      </c>
-      <c r="F2228" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H2228">
-        <v>12243</v>
+        <v>11749</v>
       </c>
     </row>
     <row r="2229" spans="1:8" x14ac:dyDescent="0.25">
@@ -52851,85 +52880,85 @@
         <v>24</v>
       </c>
       <c r="C2229" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2229" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2229" t="s">
-        <v>971</v>
+        <v>973</v>
+      </c>
+      <c r="F2229" t="s">
+        <v>978</v>
       </c>
       <c r="H2229">
-        <v>11750</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="2230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2230" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B2230" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2230" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2230" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2230" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F2230" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2230">
-        <v>13346</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="2231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2231" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B2231" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2231" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2231" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2231" t="s">
-        <v>971</v>
-      </c>
-      <c r="F2231" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="H2231">
-        <v>12244</v>
+        <v>11750</v>
       </c>
     </row>
     <row r="2232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2232" t="s">
+        <v>979</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>949</v>
+      </c>
+      <c r="D2232" t="s">
+        <v>950</v>
+      </c>
+      <c r="E2232" t="s">
+        <v>973</v>
+      </c>
+      <c r="F2232" t="s">
         <v>981</v>
       </c>
-      <c r="B2232" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2232" t="s">
-        <v>947</v>
-      </c>
-      <c r="D2232" t="s">
-        <v>948</v>
-      </c>
-      <c r="E2232" t="s">
-        <v>971</v>
-      </c>
-      <c r="F2232" t="s">
-        <v>979</v>
-      </c>
       <c r="H2232">
-        <v>11229</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="2233" spans="1:8" x14ac:dyDescent="0.25">
@@ -52937,19 +52966,22 @@
         <v>982</v>
       </c>
       <c r="B2233" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C2233" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2233" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2233" t="s">
-        <v>971</v>
+        <v>973</v>
+      </c>
+      <c r="F2233" t="s">
+        <v>981</v>
       </c>
       <c r="H2233">
-        <v>34308</v>
+        <v>12244</v>
       </c>
     </row>
     <row r="2234" spans="1:8" x14ac:dyDescent="0.25">
@@ -52960,19 +52992,19 @@
         <v>9</v>
       </c>
       <c r="C2234" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2234" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2234" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F2234" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2234">
-        <v>34309</v>
+        <v>11229</v>
       </c>
     </row>
     <row r="2235" spans="1:8" x14ac:dyDescent="0.25">
@@ -52980,22 +53012,19 @@
         <v>984</v>
       </c>
       <c r="B2235" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C2235" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2235" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2235" t="s">
-        <v>971</v>
-      </c>
-      <c r="F2235" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="H2235">
-        <v>34311</v>
+        <v>34308</v>
       </c>
     </row>
     <row r="2236" spans="1:8" x14ac:dyDescent="0.25">
@@ -53003,85 +53032,88 @@
         <v>985</v>
       </c>
       <c r="B2236" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2236" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2236" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2236" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F2236" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="H2236">
-        <v>34310</v>
+        <v>34309</v>
       </c>
     </row>
     <row r="2237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2237" t="s">
-        <v>445</v>
+        <v>986</v>
       </c>
       <c r="B2237" t="s">
         <v>26</v>
       </c>
       <c r="C2237" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2237" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2237" t="s">
-        <v>971</v>
+        <v>973</v>
+      </c>
+      <c r="F2237" t="s">
+        <v>984</v>
       </c>
       <c r="H2237">
-        <v>33177</v>
+        <v>34311</v>
       </c>
     </row>
     <row r="2238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2238" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B2238" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2238" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2238" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2238" t="s">
-        <v>971</v>
+        <v>973</v>
+      </c>
+      <c r="F2238" t="s">
+        <v>984</v>
       </c>
       <c r="H2238">
-        <v>27301</v>
+        <v>34310</v>
       </c>
     </row>
     <row r="2239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2239" t="s">
-        <v>987</v>
+        <v>445</v>
       </c>
       <c r="B2239" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2239" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2239" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2239" t="s">
-        <v>971</v>
-      </c>
-      <c r="F2239" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="H2239">
-        <v>1576</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="2240" spans="1:8" x14ac:dyDescent="0.25">
@@ -53089,19 +53121,19 @@
         <v>988</v>
       </c>
       <c r="B2240" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C2240" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2240" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2240" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="H2240">
-        <v>34393</v>
+        <v>27301</v>
       </c>
     </row>
     <row r="2241" spans="1:8" x14ac:dyDescent="0.25">
@@ -53109,16 +53141,22 @@
         <v>989</v>
       </c>
       <c r="B2241" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2241" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2241" t="s">
-        <v>948</v>
+        <v>950</v>
+      </c>
+      <c r="E2241" t="s">
+        <v>973</v>
+      </c>
+      <c r="F2241" t="s">
+        <v>988</v>
       </c>
       <c r="H2241">
-        <v>27913</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="2242" spans="1:8" x14ac:dyDescent="0.25">
@@ -53126,19 +53164,19 @@
         <v>990</v>
       </c>
       <c r="B2242" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C2242" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2242" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2242" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="H2242">
-        <v>27914</v>
+        <v>34393</v>
       </c>
     </row>
     <row r="2243" spans="1:8" x14ac:dyDescent="0.25">
@@ -53149,13 +53187,13 @@
         <v>31</v>
       </c>
       <c r="C2243" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2243" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H2243">
-        <v>34017</v>
+        <v>27913</v>
       </c>
     </row>
     <row r="2244" spans="1:8" x14ac:dyDescent="0.25">
@@ -53163,19 +53201,19 @@
         <v>992</v>
       </c>
       <c r="B2244" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2244" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D2244" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2244" t="s">
         <v>991</v>
       </c>
       <c r="H2244">
-        <v>34089</v>
+        <v>27914</v>
       </c>
     </row>
     <row r="2245" spans="1:8" x14ac:dyDescent="0.25">
@@ -53183,10 +53221,16 @@
         <v>993</v>
       </c>
       <c r="B2245" t="s">
-        <v>341</v>
+        <v>31</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>949</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>950</v>
       </c>
       <c r="H2245">
-        <v>32554</v>
+        <v>34017</v>
       </c>
     </row>
     <row r="2246" spans="1:8" x14ac:dyDescent="0.25">
@@ -53194,13 +53238,19 @@
         <v>994</v>
       </c>
       <c r="B2246" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C2246" t="s">
+        <v>949</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>950</v>
+      </c>
+      <c r="E2246" t="s">
         <v>993</v>
       </c>
       <c r="H2246">
-        <v>32555</v>
+        <v>34089</v>
       </c>
     </row>
     <row r="2247" spans="1:8" x14ac:dyDescent="0.25">
@@ -53208,16 +53258,10 @@
         <v>995</v>
       </c>
       <c r="B2247" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2247" t="s">
-        <v>993</v>
-      </c>
-      <c r="D2247" t="s">
-        <v>994</v>
+        <v>341</v>
       </c>
       <c r="H2247">
-        <v>32556</v>
+        <v>32554</v>
       </c>
     </row>
     <row r="2248" spans="1:8" x14ac:dyDescent="0.25">
@@ -53225,19 +53269,13 @@
         <v>996</v>
       </c>
       <c r="B2248" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C2248" t="s">
-        <v>993</v>
-      </c>
-      <c r="D2248" t="s">
-        <v>994</v>
-      </c>
-      <c r="E2248" t="s">
         <v>995</v>
       </c>
       <c r="H2248">
-        <v>32560</v>
+        <v>32555</v>
       </c>
     </row>
     <row r="2249" spans="1:8" x14ac:dyDescent="0.25">
@@ -53245,22 +53283,16 @@
         <v>997</v>
       </c>
       <c r="B2249" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2249" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2249" t="s">
-        <v>994</v>
-      </c>
-      <c r="E2249" t="s">
-        <v>995</v>
-      </c>
-      <c r="F2249" t="s">
         <v>996</v>
       </c>
       <c r="H2249">
-        <v>32562</v>
+        <v>32556</v>
       </c>
     </row>
     <row r="2250" spans="1:8" x14ac:dyDescent="0.25">
@@ -53268,22 +53300,19 @@
         <v>998</v>
       </c>
       <c r="B2250" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C2250" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2250" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2250" t="s">
-        <v>995</v>
-      </c>
-      <c r="F2250" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2250">
-        <v>32563</v>
+        <v>32560</v>
       </c>
     </row>
     <row r="2251" spans="1:8" x14ac:dyDescent="0.25">
@@ -53294,19 +53323,19 @@
         <v>26</v>
       </c>
       <c r="C2251" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2251" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2251" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2251" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="H2251">
-        <v>32564</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="2252" spans="1:8" x14ac:dyDescent="0.25">
@@ -53317,19 +53346,19 @@
         <v>26</v>
       </c>
       <c r="C2252" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2252" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2252" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2252" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="H2252">
-        <v>32561</v>
+        <v>32563</v>
       </c>
     </row>
     <row r="2253" spans="1:8" x14ac:dyDescent="0.25">
@@ -53337,19 +53366,22 @@
         <v>1001</v>
       </c>
       <c r="B2253" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C2253" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2253" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2253" t="s">
-        <v>995</v>
+        <v>997</v>
+      </c>
+      <c r="F2253" t="s">
+        <v>998</v>
       </c>
       <c r="H2253">
-        <v>32565</v>
+        <v>32564</v>
       </c>
     </row>
     <row r="2254" spans="1:8" x14ac:dyDescent="0.25">
@@ -53360,19 +53392,19 @@
         <v>26</v>
       </c>
       <c r="C2254" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2254" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2254" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2254" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="H2254">
-        <v>32566</v>
+        <v>32561</v>
       </c>
     </row>
     <row r="2255" spans="1:8" x14ac:dyDescent="0.25">
@@ -53380,22 +53412,19 @@
         <v>1003</v>
       </c>
       <c r="B2255" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C2255" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2255" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2255" t="s">
-        <v>995</v>
-      </c>
-      <c r="F2255" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="H2255">
-        <v>32567</v>
+        <v>32565</v>
       </c>
     </row>
     <row r="2256" spans="1:8" x14ac:dyDescent="0.25">
@@ -53406,19 +53435,19 @@
         <v>26</v>
       </c>
       <c r="C2256" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2256" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2256" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2256" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="H2256">
-        <v>32568</v>
+        <v>32566</v>
       </c>
     </row>
     <row r="2257" spans="1:8" x14ac:dyDescent="0.25">
@@ -53426,19 +53455,22 @@
         <v>1005</v>
       </c>
       <c r="B2257" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2257" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2257" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2257" t="s">
-        <v>995</v>
+        <v>997</v>
+      </c>
+      <c r="F2257" t="s">
+        <v>1003</v>
       </c>
       <c r="H2257">
-        <v>33732</v>
+        <v>32567</v>
       </c>
     </row>
     <row r="2258" spans="1:8" x14ac:dyDescent="0.25">
@@ -53446,22 +53478,22 @@
         <v>1006</v>
       </c>
       <c r="B2258" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2258" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2258" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2258" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2258" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H2258">
-        <v>33736</v>
+        <v>32568</v>
       </c>
     </row>
     <row r="2259" spans="1:8" x14ac:dyDescent="0.25">
@@ -53469,19 +53501,19 @@
         <v>1007</v>
       </c>
       <c r="B2259" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C2259" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2259" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2259" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="H2259">
-        <v>33455</v>
+        <v>33732</v>
       </c>
     </row>
     <row r="2260" spans="1:8" x14ac:dyDescent="0.25">
@@ -53489,22 +53521,22 @@
         <v>1008</v>
       </c>
       <c r="B2260" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2260" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2260" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2260" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2260" t="s">
         <v>1007</v>
       </c>
       <c r="H2260">
-        <v>33456</v>
+        <v>33736</v>
       </c>
     </row>
     <row r="2261" spans="1:8" x14ac:dyDescent="0.25">
@@ -53512,22 +53544,19 @@
         <v>1009</v>
       </c>
       <c r="B2261" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C2261" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2261" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2261" t="s">
-        <v>995</v>
-      </c>
-      <c r="F2261" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="H2261">
-        <v>33457</v>
+        <v>33455</v>
       </c>
     </row>
     <row r="2262" spans="1:8" x14ac:dyDescent="0.25">
@@ -53538,19 +53567,19 @@
         <v>26</v>
       </c>
       <c r="C2262" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2262" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2262" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2262" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="H2262">
-        <v>33458</v>
+        <v>33456</v>
       </c>
     </row>
     <row r="2263" spans="1:8" x14ac:dyDescent="0.25">
@@ -53561,19 +53590,19 @@
         <v>26</v>
       </c>
       <c r="C2263" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2263" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2263" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F2263" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="H2263">
-        <v>33459</v>
+        <v>33457</v>
       </c>
     </row>
     <row r="2264" spans="1:8" x14ac:dyDescent="0.25">
@@ -53584,16 +53613,19 @@
         <v>26</v>
       </c>
       <c r="C2264" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2264" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2264" t="s">
-        <v>995</v>
+        <v>997</v>
+      </c>
+      <c r="F2264" t="s">
+        <v>1009</v>
       </c>
       <c r="H2264">
-        <v>27598</v>
+        <v>33458</v>
       </c>
     </row>
     <row r="2265" spans="1:8" x14ac:dyDescent="0.25">
@@ -53604,84 +53636,96 @@
         <v>26</v>
       </c>
       <c r="C2265" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2265" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2265" t="s">
-        <v>995</v>
+        <v>997</v>
+      </c>
+      <c r="F2265" t="s">
+        <v>1009</v>
       </c>
       <c r="H2265">
-        <v>27599</v>
+        <v>33459</v>
       </c>
     </row>
     <row r="2266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2266" t="s">
-        <v>107</v>
+        <v>1014</v>
       </c>
       <c r="B2266" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2266" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2266" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2266" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="H2266">
-        <v>27323</v>
+        <v>27598</v>
       </c>
     </row>
     <row r="2267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2267" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B2267" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2267" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2267" t="s">
-        <v>994</v>
+        <v>996</v>
+      </c>
+      <c r="E2267" t="s">
+        <v>997</v>
       </c>
       <c r="H2267">
-        <v>32557</v>
+        <v>27599</v>
       </c>
     </row>
     <row r="2268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2268" t="s">
-        <v>1015</v>
+        <v>107</v>
       </c>
       <c r="B2268" t="s">
         <v>9</v>
       </c>
       <c r="C2268" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D2268" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2268" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="H2268">
-        <v>32558</v>
+        <v>27323</v>
       </c>
     </row>
     <row r="2269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2269" t="s">
+        <v>1016</v>
+      </c>
       <c r="B2269" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2269" t="s">
-        <v>1016</v>
+        <v>995</v>
+      </c>
+      <c r="D2269" t="s">
+        <v>996</v>
       </c>
       <c r="H2269">
-        <v>33991</v>
+        <v>32557</v>
       </c>
     </row>
     <row r="2270" spans="1:8" x14ac:dyDescent="0.25">
@@ -53689,30 +53733,30 @@
         <v>1017</v>
       </c>
       <c r="B2270" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C2270" t="s">
+        <v>995</v>
+      </c>
+      <c r="D2270" t="s">
+        <v>996</v>
+      </c>
+      <c r="E2270" t="s">
         <v>1016</v>
       </c>
       <c r="H2270">
-        <v>18148</v>
+        <v>32558</v>
       </c>
     </row>
     <row r="2271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2271" t="s">
+      <c r="B2271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2271" t="s">
         <v>1018</v>
       </c>
-      <c r="B2271" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2271" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D2271" t="s">
-        <v>1017</v>
-      </c>
       <c r="H2271">
-        <v>25295</v>
+        <v>33991</v>
       </c>
     </row>
     <row r="2272" spans="1:8" x14ac:dyDescent="0.25">
@@ -53720,64 +53764,61 @@
         <v>1019</v>
       </c>
       <c r="B2272" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2272" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D2272" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H2272">
-        <v>34474</v>
+        <v>18148</v>
       </c>
     </row>
     <row r="2273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2273" t="s">
+        <v>1020</v>
+      </c>
       <c r="B2273" t="s">
         <v>31</v>
       </c>
       <c r="C2273" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2273" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2273">
-        <v>33917</v>
+        <v>25295</v>
       </c>
     </row>
     <row r="2274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2274" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B2274" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2274" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2274" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2274">
-        <v>33912</v>
+        <v>34474</v>
       </c>
     </row>
     <row r="2275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2275" t="s">
-        <v>1021</v>
-      </c>
       <c r="B2275" t="s">
         <v>31</v>
       </c>
       <c r="C2275" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2275" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2275">
-        <v>20423</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="2276" spans="1:8" x14ac:dyDescent="0.25">
@@ -53785,16 +53826,16 @@
         <v>1022</v>
       </c>
       <c r="B2276" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2276" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2276" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2276">
-        <v>20424</v>
+        <v>33912</v>
       </c>
     </row>
     <row r="2277" spans="1:8" x14ac:dyDescent="0.25">
@@ -53805,13 +53846,13 @@
         <v>31</v>
       </c>
       <c r="C2277" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2277" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2277">
-        <v>20425</v>
+        <v>20423</v>
       </c>
     </row>
     <row r="2278" spans="1:8" x14ac:dyDescent="0.25">
@@ -53822,13 +53863,13 @@
         <v>31</v>
       </c>
       <c r="C2278" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2278" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2278">
-        <v>20426</v>
+        <v>20424</v>
       </c>
     </row>
     <row r="2279" spans="1:8" x14ac:dyDescent="0.25">
@@ -53839,13 +53880,13 @@
         <v>31</v>
       </c>
       <c r="C2279" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2279" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2279">
-        <v>20440</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="2280" spans="1:8" x14ac:dyDescent="0.25">
@@ -53856,13 +53897,13 @@
         <v>31</v>
       </c>
       <c r="C2280" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2280" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2280">
-        <v>20441</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="2281" spans="1:8" x14ac:dyDescent="0.25">
@@ -53873,13 +53914,13 @@
         <v>31</v>
       </c>
       <c r="C2281" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2281" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2281">
-        <v>32646</v>
+        <v>20440</v>
       </c>
     </row>
     <row r="2282" spans="1:8" x14ac:dyDescent="0.25">
@@ -53890,13 +53931,13 @@
         <v>31</v>
       </c>
       <c r="C2282" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2282" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2282">
-        <v>20442</v>
+        <v>20441</v>
       </c>
     </row>
     <row r="2283" spans="1:8" x14ac:dyDescent="0.25">
@@ -53907,13 +53948,13 @@
         <v>31</v>
       </c>
       <c r="C2283" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2283" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2283">
-        <v>20443</v>
+        <v>32646</v>
       </c>
     </row>
     <row r="2284" spans="1:8" x14ac:dyDescent="0.25">
@@ -53924,13 +53965,13 @@
         <v>31</v>
       </c>
       <c r="C2284" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2284" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2284">
-        <v>20444</v>
+        <v>20442</v>
       </c>
     </row>
     <row r="2285" spans="1:8" x14ac:dyDescent="0.25">
@@ -53941,13 +53982,13 @@
         <v>31</v>
       </c>
       <c r="C2285" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2285" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2285">
-        <v>20445</v>
+        <v>20443</v>
       </c>
     </row>
     <row r="2286" spans="1:8" x14ac:dyDescent="0.25">
@@ -53958,108 +53999,111 @@
         <v>31</v>
       </c>
       <c r="C2286" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2286" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H2286">
+        <v>20444</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2287" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D2287" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H2287">
+        <v>20445</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2288" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D2288" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H2288">
         <v>18792</v>
       </c>
     </row>
-    <row r="2287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2287" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2287" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H2287">
+    <row r="2289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2289" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H2289">
         <v>33940</v>
       </c>
     </row>
-    <row r="2288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2288" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2288" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H2288">
+    <row r="2290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H2290">
         <v>33939</v>
-      </c>
-    </row>
-    <row r="2289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2289" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2289" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2289" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H2289">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2290" t="s">
-        <v>325</v>
-      </c>
-      <c r="B2290" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2290" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H2290">
-        <v>748</v>
       </c>
     </row>
     <row r="2291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2291" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B2291" t="s">
         <v>9</v>
       </c>
       <c r="C2291" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H2291">
-        <v>3167</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2292" t="s">
-        <v>1033</v>
+        <v>325</v>
       </c>
       <c r="B2292" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C2292" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H2292">
-        <v>18244</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2293" t="s">
-        <v>1034</v>
+        <v>78</v>
       </c>
       <c r="B2293" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2293" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D2293" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="H2293">
-        <v>19139</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="2294" spans="1:8" x14ac:dyDescent="0.25">
@@ -54067,16 +54111,13 @@
         <v>1035</v>
       </c>
       <c r="B2294" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2294" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D2294" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="H2294">
-        <v>19140</v>
+        <v>18244</v>
       </c>
     </row>
     <row r="2295" spans="1:8" x14ac:dyDescent="0.25">
@@ -54084,13 +54125,16 @@
         <v>1036</v>
       </c>
       <c r="B2295" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2295" t="s">
-        <v>1016</v>
+        <v>1018</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>1035</v>
       </c>
       <c r="H2295">
-        <v>106</v>
+        <v>19139</v>
       </c>
     </row>
     <row r="2296" spans="1:8" x14ac:dyDescent="0.25">
@@ -54098,10 +54142,16 @@
         <v>1037</v>
       </c>
       <c r="B2296" t="s">
-        <v>472</v>
+        <v>31</v>
       </c>
       <c r="C2296" t="s">
-        <v>1016</v>
+        <v>1018</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H2296">
+        <v>19140</v>
       </c>
     </row>
     <row r="2297" spans="1:8" x14ac:dyDescent="0.25">
@@ -54109,13 +54159,13 @@
         <v>1038</v>
       </c>
       <c r="B2297" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C2297" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H2297">
-        <v>20802</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2298" spans="1:8" x14ac:dyDescent="0.25">
@@ -54123,16 +54173,10 @@
         <v>1039</v>
       </c>
       <c r="B2298" t="s">
-        <v>31</v>
+        <v>472</v>
       </c>
       <c r="C2298" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D2298" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H2298">
-        <v>24423</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2299" spans="1:8" x14ac:dyDescent="0.25">
@@ -54140,16 +54184,13 @@
         <v>1040</v>
       </c>
       <c r="B2299" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2299" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D2299" t="s">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="H2299">
-        <v>33755</v>
+        <v>20802</v>
       </c>
     </row>
     <row r="2300" spans="1:8" x14ac:dyDescent="0.25">
@@ -54157,19 +54198,16 @@
         <v>1041</v>
       </c>
       <c r="B2300" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2300" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2300" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E2300" t="s">
         <v>1040</v>
       </c>
       <c r="H2300">
-        <v>33756</v>
+        <v>24423</v>
       </c>
     </row>
     <row r="2301" spans="1:8" x14ac:dyDescent="0.25">
@@ -54180,13 +54218,13 @@
         <v>31</v>
       </c>
       <c r="C2301" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2301" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="H2301">
-        <v>24850</v>
+        <v>33755</v>
       </c>
     </row>
     <row r="2302" spans="1:8" x14ac:dyDescent="0.25">
@@ -54194,16 +54232,19 @@
         <v>1043</v>
       </c>
       <c r="B2302" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2302" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2302" t="s">
-        <v>1038</v>
+        <v>1040</v>
+      </c>
+      <c r="E2302" t="s">
+        <v>1042</v>
       </c>
       <c r="H2302">
-        <v>25368</v>
+        <v>33756</v>
       </c>
     </row>
     <row r="2303" spans="1:8" x14ac:dyDescent="0.25">
@@ -54214,13 +54255,13 @@
         <v>31</v>
       </c>
       <c r="C2303" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2303" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="H2303">
-        <v>24207</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="2304" spans="1:8" x14ac:dyDescent="0.25">
@@ -54231,13 +54272,13 @@
         <v>31</v>
       </c>
       <c r="C2304" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2304" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="H2304">
-        <v>24952</v>
+        <v>25368</v>
       </c>
     </row>
     <row r="2305" spans="1:8" x14ac:dyDescent="0.25">
@@ -54248,64 +54289,64 @@
         <v>31</v>
       </c>
       <c r="C2305" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2305" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="H2305">
-        <v>24424</v>
+        <v>24207</v>
       </c>
     </row>
     <row r="2306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2306" t="s">
+        <v>1047</v>
+      </c>
       <c r="B2306" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2306" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2306" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E2306" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="H2306">
-        <v>24421</v>
+        <v>24952</v>
       </c>
     </row>
     <row r="2307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2307" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B2307" t="s">
         <v>31</v>
       </c>
       <c r="C2307" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2307" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="H2307">
-        <v>22547</v>
+        <v>24424</v>
       </c>
     </row>
     <row r="2308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2308" t="s">
+      <c r="B2308" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E2308" t="s">
         <v>1048</v>
       </c>
-      <c r="B2308" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2308" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D2308" t="s">
-        <v>1038</v>
-      </c>
       <c r="H2308">
-        <v>20511</v>
+        <v>24421</v>
       </c>
     </row>
     <row r="2309" spans="1:8" x14ac:dyDescent="0.25">
@@ -54316,13 +54357,13 @@
         <v>31</v>
       </c>
       <c r="C2309" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2309" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="H2309">
-        <v>34138</v>
+        <v>22547</v>
       </c>
     </row>
     <row r="2310" spans="1:8" x14ac:dyDescent="0.25">
@@ -54330,19 +54371,16 @@
         <v>1050</v>
       </c>
       <c r="B2310" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2310" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2310" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E2310" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="H2310">
-        <v>34139</v>
+        <v>20511</v>
       </c>
     </row>
     <row r="2311" spans="1:8" x14ac:dyDescent="0.25">
@@ -54353,13 +54391,13 @@
         <v>31</v>
       </c>
       <c r="C2311" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2311" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="H2311">
-        <v>27331</v>
+        <v>34138</v>
       </c>
     </row>
     <row r="2312" spans="1:8" x14ac:dyDescent="0.25">
@@ -54370,16 +54408,16 @@
         <v>9</v>
       </c>
       <c r="C2312" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2312" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E2312" t="s">
         <v>1051</v>
       </c>
       <c r="H2312">
-        <v>27363</v>
+        <v>34139</v>
       </c>
     </row>
     <row r="2313" spans="1:8" x14ac:dyDescent="0.25">
@@ -54387,19 +54425,16 @@
         <v>1053</v>
       </c>
       <c r="B2313" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2313" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2313" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E2313" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="H2313">
-        <v>27364</v>
+        <v>27331</v>
       </c>
     </row>
     <row r="2314" spans="1:8" x14ac:dyDescent="0.25">
@@ -54410,16 +54445,16 @@
         <v>9</v>
       </c>
       <c r="C2314" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2314" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E2314" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="H2314">
-        <v>27365</v>
+        <v>27363</v>
       </c>
     </row>
     <row r="2315" spans="1:8" x14ac:dyDescent="0.25">
@@ -54430,16 +54465,16 @@
         <v>9</v>
       </c>
       <c r="C2315" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2315" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E2315" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="H2315">
-        <v>27366</v>
+        <v>27364</v>
       </c>
     </row>
     <row r="2316" spans="1:8" x14ac:dyDescent="0.25">
@@ -54447,16 +54482,19 @@
         <v>1056</v>
       </c>
       <c r="B2316" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2316" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2316" t="s">
-        <v>1038</v>
+        <v>1040</v>
+      </c>
+      <c r="E2316" t="s">
+        <v>1053</v>
       </c>
       <c r="H2316">
-        <v>18158</v>
+        <v>27365</v>
       </c>
     </row>
     <row r="2317" spans="1:8" x14ac:dyDescent="0.25">
@@ -54464,16 +54502,19 @@
         <v>1057</v>
       </c>
       <c r="B2317" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2317" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2317" t="s">
-        <v>1038</v>
+        <v>1040</v>
+      </c>
+      <c r="E2317" t="s">
+        <v>1053</v>
       </c>
       <c r="H2317">
-        <v>26945</v>
+        <v>27366</v>
       </c>
     </row>
     <row r="2318" spans="1:8" x14ac:dyDescent="0.25">
@@ -54481,13 +54522,16 @@
         <v>1058</v>
       </c>
       <c r="B2318" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2318" t="s">
-        <v>1016</v>
+        <v>1018</v>
+      </c>
+      <c r="D2318" t="s">
+        <v>1040</v>
       </c>
       <c r="H2318">
-        <v>27265</v>
+        <v>18158</v>
       </c>
     </row>
     <row r="2319" spans="1:8" x14ac:dyDescent="0.25">
@@ -54498,13 +54542,13 @@
         <v>31</v>
       </c>
       <c r="C2319" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2319" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="H2319">
-        <v>27266</v>
+        <v>26945</v>
       </c>
     </row>
     <row r="2320" spans="1:8" x14ac:dyDescent="0.25">
@@ -54512,16 +54556,13 @@
         <v>1060</v>
       </c>
       <c r="B2320" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2320" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D2320" t="s">
-        <v>1058</v>
+        <v>1018</v>
       </c>
       <c r="H2320">
-        <v>27267</v>
+        <v>27265</v>
       </c>
     </row>
     <row r="2321" spans="1:8" x14ac:dyDescent="0.25">
@@ -54532,13 +54573,13 @@
         <v>31</v>
       </c>
       <c r="C2321" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2321" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H2321">
-        <v>27545</v>
+        <v>27266</v>
       </c>
     </row>
     <row r="2322" spans="1:8" x14ac:dyDescent="0.25">
@@ -54549,47 +54590,47 @@
         <v>31</v>
       </c>
       <c r="C2322" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2322" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H2322">
-        <v>33737</v>
+        <v>27267</v>
       </c>
     </row>
     <row r="2323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2323" t="s">
+        <v>1063</v>
+      </c>
       <c r="B2323" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2323" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2323" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E2323" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H2323">
-        <v>33739</v>
+        <v>27545</v>
       </c>
     </row>
     <row r="2324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2324" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B2324" t="s">
         <v>31</v>
       </c>
       <c r="C2324" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2324" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H2324">
-        <v>33738</v>
+        <v>33737</v>
       </c>
     </row>
     <row r="2325" spans="1:8" x14ac:dyDescent="0.25">
@@ -54597,438 +54638,429 @@
         <v>9</v>
       </c>
       <c r="C2325" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2325" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E2325" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H2325">
-        <v>33740</v>
+        <v>33739</v>
       </c>
     </row>
     <row r="2326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2326" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B2326" t="s">
         <v>31</v>
       </c>
       <c r="C2326" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2326" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H2326">
-        <v>27005</v>
+        <v>33738</v>
       </c>
     </row>
     <row r="2327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2327" t="s">
-        <v>331</v>
-      </c>
       <c r="B2327" t="s">
         <v>9</v>
       </c>
       <c r="C2327" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2327" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E2327" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H2327">
-        <v>27007</v>
+        <v>33740</v>
       </c>
     </row>
     <row r="2328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2328" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B2328" t="s">
         <v>31</v>
       </c>
       <c r="C2328" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2328" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H2328">
-        <v>27021</v>
+        <v>27005</v>
       </c>
     </row>
     <row r="2329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2329" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2329" t="s">
         <v>9</v>
       </c>
       <c r="C2329" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D2329" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E2329" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H2329">
-        <v>27006</v>
+        <v>27007</v>
       </c>
     </row>
     <row r="2330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2330" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B2330" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2330" t="s">
-        <v>1016</v>
+        <v>1018</v>
+      </c>
+      <c r="D2330" t="s">
+        <v>1060</v>
       </c>
       <c r="H2330">
-        <v>27058</v>
+        <v>27021</v>
       </c>
     </row>
     <row r="2331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2331" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B2331" t="s">
         <v>9</v>
       </c>
       <c r="C2331" t="s">
-        <v>1016</v>
+        <v>1018</v>
+      </c>
+      <c r="D2331" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E2331" t="s">
+        <v>1067</v>
       </c>
       <c r="H2331">
-        <v>11323</v>
+        <v>27006</v>
       </c>
     </row>
     <row r="2332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2332" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B2332" t="s">
-        <v>1068</v>
+        <v>9</v>
       </c>
       <c r="C2332" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D2332" t="s">
-        <v>1069</v>
+        <v>1018</v>
       </c>
       <c r="H2332">
-        <v>19718</v>
+        <v>27058</v>
       </c>
     </row>
     <row r="2333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2333" t="s">
-        <v>76</v>
+        <v>1069</v>
       </c>
       <c r="B2333" t="s">
         <v>9</v>
       </c>
       <c r="C2333" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D2333" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E2333" t="s">
-        <v>1067</v>
+        <v>1018</v>
       </c>
       <c r="H2333">
-        <v>13161</v>
+        <v>27302</v>
       </c>
     </row>
     <row r="2334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2334" t="s">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="B2334" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2334" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D2334" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E2334" t="s">
-        <v>1067</v>
+        <v>1018</v>
       </c>
       <c r="H2334">
-        <v>6906</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="2335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2335" t="s">
-        <v>72</v>
+        <v>1070</v>
       </c>
       <c r="B2335" t="s">
-        <v>9</v>
+        <v>1071</v>
       </c>
       <c r="C2335" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2335" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E2335" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="H2335">
-        <v>5604</v>
+        <v>19718</v>
       </c>
     </row>
     <row r="2336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2336" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B2336" t="s">
         <v>9</v>
       </c>
       <c r="C2336" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2336" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2336" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="H2336">
-        <v>2511</v>
+        <v>13161</v>
       </c>
     </row>
     <row r="2337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2337" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2337" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2337" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2337" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2337" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="H2337">
-        <v>3165</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="2338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2338" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2338" t="s">
         <v>9</v>
       </c>
       <c r="C2338" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2338" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2338" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="H2338">
-        <v>3167</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="2339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2339" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2339" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2339" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2339" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2339" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="H2339">
-        <v>31140</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="2340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2340" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B2340" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2340" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2340" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2340" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F2340" t="s">
-        <v>79</v>
+        <v>1070</v>
       </c>
       <c r="H2340">
-        <v>22972</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="2341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2341" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2341" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2341" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2341" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2341" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F2341" t="s">
-        <v>79</v>
+        <v>1070</v>
       </c>
       <c r="H2341">
-        <v>22973</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="2342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2342" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2342" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C2342" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2342" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2342" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="H2342">
-        <v>1751</v>
+        <v>31140</v>
       </c>
     </row>
     <row r="2343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2343" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2343" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2343" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2343" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2343" t="s">
-        <v>1067</v>
+        <v>1070</v>
+      </c>
+      <c r="F2343" t="s">
+        <v>79</v>
       </c>
       <c r="H2343">
-        <v>5603</v>
+        <v>22972</v>
       </c>
     </row>
     <row r="2344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2344" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2344" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2344" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2344" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2344" t="s">
-        <v>1067</v>
+        <v>1070</v>
+      </c>
+      <c r="F2344" t="s">
+        <v>79</v>
       </c>
       <c r="H2344">
-        <v>11846</v>
+        <v>22973</v>
       </c>
     </row>
     <row r="2345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2345" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D2345" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E2345" t="s">
         <v>1070</v>
       </c>
-      <c r="B2345" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C2345" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D2345" t="s">
-        <v>1069</v>
-      </c>
       <c r="H2345">
-        <v>21472</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="2346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2346" t="s">
-        <v>1071</v>
+        <v>83</v>
       </c>
       <c r="B2346" t="s">
         <v>9</v>
       </c>
       <c r="C2346" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2346" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2346" t="s">
         <v>1070</v>
       </c>
       <c r="H2346">
-        <v>26907</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="2347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2347" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2347" t="s">
         <v>1072</v>
       </c>
-      <c r="B2347" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2347" t="s">
-        <v>1069</v>
-      </c>
       <c r="D2347" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2347" t="s">
         <v>1070</v>
       </c>
       <c r="H2347">
-        <v>21473</v>
+        <v>11846</v>
       </c>
     </row>
     <row r="2348" spans="1:8" x14ac:dyDescent="0.25">
@@ -55036,19 +55068,16 @@
         <v>1073</v>
       </c>
       <c r="B2348" t="s">
-        <v>9</v>
+        <v>1071</v>
       </c>
       <c r="C2348" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2348" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E2348" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="H2348">
-        <v>21474</v>
+        <v>21472</v>
       </c>
     </row>
     <row r="2349" spans="1:8" x14ac:dyDescent="0.25">
@@ -55059,16 +55088,16 @@
         <v>9</v>
       </c>
       <c r="C2349" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2349" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2349" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H2349">
-        <v>21475</v>
+        <v>26907</v>
       </c>
     </row>
     <row r="2350" spans="1:8" x14ac:dyDescent="0.25">
@@ -55079,16 +55108,16 @@
         <v>9</v>
       </c>
       <c r="C2350" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2350" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2350" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H2350">
-        <v>20528</v>
+        <v>21473</v>
       </c>
     </row>
     <row r="2351" spans="1:8" x14ac:dyDescent="0.25">
@@ -55099,16 +55128,16 @@
         <v>9</v>
       </c>
       <c r="C2351" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2351" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2351" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H2351">
-        <v>26353</v>
+        <v>21474</v>
       </c>
     </row>
     <row r="2352" spans="1:8" x14ac:dyDescent="0.25">
@@ -55119,16 +55148,16 @@
         <v>9</v>
       </c>
       <c r="C2352" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2352" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2352" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H2352">
-        <v>26350</v>
+        <v>21475</v>
       </c>
     </row>
     <row r="2353" spans="1:8" x14ac:dyDescent="0.25">
@@ -55136,19 +55165,19 @@
         <v>1078</v>
       </c>
       <c r="B2353" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2353" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2353" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2353" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H2353">
-        <v>26351</v>
+        <v>20528</v>
       </c>
     </row>
     <row r="2354" spans="1:8" x14ac:dyDescent="0.25">
@@ -55159,19 +55188,16 @@
         <v>9</v>
       </c>
       <c r="C2354" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2354" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2354" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2354" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="H2354">
-        <v>26358</v>
+        <v>26353</v>
       </c>
     </row>
     <row r="2355" spans="1:8" x14ac:dyDescent="0.25">
@@ -55182,19 +55208,16 @@
         <v>9</v>
       </c>
       <c r="C2355" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2355" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2355" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2355" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="H2355">
-        <v>26359</v>
+        <v>26350</v>
       </c>
     </row>
     <row r="2356" spans="1:8" x14ac:dyDescent="0.25">
@@ -55202,22 +55225,19 @@
         <v>1081</v>
       </c>
       <c r="B2356" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2356" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2356" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2356" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2356" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="H2356">
-        <v>27616</v>
+        <v>26351</v>
       </c>
     </row>
     <row r="2357" spans="1:8" x14ac:dyDescent="0.25">
@@ -55228,19 +55248,19 @@
         <v>9</v>
       </c>
       <c r="C2357" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2357" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2357" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2357" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="H2357">
-        <v>27617</v>
+        <v>26358</v>
       </c>
     </row>
     <row r="2358" spans="1:8" x14ac:dyDescent="0.25">
@@ -55251,19 +55271,19 @@
         <v>9</v>
       </c>
       <c r="C2358" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2358" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2358" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2358" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="H2358">
-        <v>26356</v>
+        <v>26359</v>
       </c>
     </row>
     <row r="2359" spans="1:8" x14ac:dyDescent="0.25">
@@ -55274,19 +55294,19 @@
         <v>9</v>
       </c>
       <c r="C2359" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2359" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2359" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2359" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="H2359">
-        <v>26357</v>
+        <v>27616</v>
       </c>
     </row>
     <row r="2360" spans="1:8" x14ac:dyDescent="0.25">
@@ -55294,19 +55314,22 @@
         <v>1085</v>
       </c>
       <c r="B2360" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2360" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2360" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2360" t="s">
-        <v>1070</v>
+        <v>1073</v>
+      </c>
+      <c r="F2360" t="s">
+        <v>1081</v>
       </c>
       <c r="H2360">
-        <v>26349</v>
+        <v>27617</v>
       </c>
     </row>
     <row r="2361" spans="1:8" x14ac:dyDescent="0.25">
@@ -55317,19 +55340,19 @@
         <v>9</v>
       </c>
       <c r="C2361" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2361" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2361" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2361" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="H2361">
-        <v>26774</v>
+        <v>26356</v>
       </c>
     </row>
     <row r="2362" spans="1:8" x14ac:dyDescent="0.25">
@@ -55340,19 +55363,19 @@
         <v>9</v>
       </c>
       <c r="C2362" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2362" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2362" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2362" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="H2362">
-        <v>26355</v>
+        <v>26357</v>
       </c>
     </row>
     <row r="2363" spans="1:8" x14ac:dyDescent="0.25">
@@ -55360,22 +55383,19 @@
         <v>1088</v>
       </c>
       <c r="B2363" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2363" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2363" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2363" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2363" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="H2363">
-        <v>26993</v>
+        <v>26349</v>
       </c>
     </row>
     <row r="2364" spans="1:8" x14ac:dyDescent="0.25">
@@ -55386,19 +55406,19 @@
         <v>9</v>
       </c>
       <c r="C2364" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2364" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2364" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2364" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="H2364">
-        <v>26362</v>
+        <v>26774</v>
       </c>
     </row>
     <row r="2365" spans="1:8" x14ac:dyDescent="0.25">
@@ -55406,19 +55426,22 @@
         <v>1090</v>
       </c>
       <c r="B2365" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2365" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2365" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2365" t="s">
-        <v>1070</v>
+        <v>1073</v>
+      </c>
+      <c r="F2365" t="s">
+        <v>1088</v>
       </c>
       <c r="H2365">
-        <v>27015</v>
+        <v>26355</v>
       </c>
     </row>
     <row r="2366" spans="1:8" x14ac:dyDescent="0.25">
@@ -55429,19 +55452,19 @@
         <v>9</v>
       </c>
       <c r="C2366" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2366" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2366" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2366" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H2366">
-        <v>27040</v>
+        <v>26993</v>
       </c>
     </row>
     <row r="2367" spans="1:8" x14ac:dyDescent="0.25">
@@ -55452,19 +55475,19 @@
         <v>9</v>
       </c>
       <c r="C2367" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2367" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2367" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2367" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H2367">
-        <v>27038</v>
+        <v>26362</v>
       </c>
     </row>
     <row r="2368" spans="1:8" x14ac:dyDescent="0.25">
@@ -55472,22 +55495,19 @@
         <v>1093</v>
       </c>
       <c r="B2368" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2368" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2368" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2368" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2368" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="H2368">
-        <v>27039</v>
+        <v>27015</v>
       </c>
     </row>
     <row r="2369" spans="1:8" x14ac:dyDescent="0.25">
@@ -55498,19 +55518,19 @@
         <v>9</v>
       </c>
       <c r="C2369" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2369" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2369" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2369" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="H2369">
-        <v>27043</v>
+        <v>27040</v>
       </c>
     </row>
     <row r="2370" spans="1:8" x14ac:dyDescent="0.25">
@@ -55521,16 +55541,19 @@
         <v>9</v>
       </c>
       <c r="C2370" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2370" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2370" t="s">
-        <v>1070</v>
+        <v>1073</v>
+      </c>
+      <c r="F2370" t="s">
+        <v>1093</v>
       </c>
       <c r="H2370">
-        <v>27017</v>
+        <v>27038</v>
       </c>
     </row>
     <row r="2371" spans="1:8" x14ac:dyDescent="0.25">
@@ -55541,16 +55564,19 @@
         <v>9</v>
       </c>
       <c r="C2371" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2371" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2371" t="s">
-        <v>1070</v>
+        <v>1073</v>
+      </c>
+      <c r="F2371" t="s">
+        <v>1093</v>
       </c>
       <c r="H2371">
-        <v>20524</v>
+        <v>27039</v>
       </c>
     </row>
     <row r="2372" spans="1:8" x14ac:dyDescent="0.25">
@@ -55561,125 +55587,119 @@
         <v>9</v>
       </c>
       <c r="C2372" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2372" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2372" t="s">
-        <v>1070</v>
+        <v>1073</v>
+      </c>
+      <c r="F2372" t="s">
+        <v>1093</v>
       </c>
       <c r="H2372">
-        <v>20526</v>
+        <v>27043</v>
       </c>
     </row>
     <row r="2373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2373" t="s">
-        <v>78</v>
+        <v>1098</v>
       </c>
       <c r="B2373" t="s">
         <v>9</v>
       </c>
       <c r="C2373" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2373" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2373" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H2373">
-        <v>3167</v>
+        <v>27017</v>
       </c>
     </row>
     <row r="2374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2374" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B2374" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2374" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2374" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2374" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H2374">
-        <v>26354</v>
+        <v>20524</v>
       </c>
     </row>
     <row r="2375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2375" t="s">
-        <v>1086</v>
+        <v>1100</v>
       </c>
       <c r="B2375" t="s">
         <v>9</v>
       </c>
       <c r="C2375" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2375" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2375" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2375" t="s">
-        <v>1098</v>
+        <v>1073</v>
       </c>
       <c r="H2375">
-        <v>26774</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="2376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2376" t="s">
-        <v>1087</v>
+        <v>78</v>
       </c>
       <c r="B2376" t="s">
         <v>9</v>
       </c>
       <c r="C2376" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2376" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2376" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2376" t="s">
-        <v>1098</v>
+        <v>1073</v>
       </c>
       <c r="H2376">
-        <v>26355</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="2377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2377" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
       <c r="B2377" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2377" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2377" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2377" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2377" t="s">
-        <v>1098</v>
+        <v>1073</v>
       </c>
       <c r="H2377">
-        <v>26993</v>
+        <v>26354</v>
       </c>
     </row>
     <row r="2378" spans="1:8" x14ac:dyDescent="0.25">
@@ -55690,39 +55710,42 @@
         <v>9</v>
       </c>
       <c r="C2378" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2378" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2378" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2378" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="H2378">
-        <v>26362</v>
+        <v>26774</v>
       </c>
     </row>
     <row r="2379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2379" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="B2379" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2379" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2379" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2379" t="s">
-        <v>1070</v>
+        <v>1073</v>
+      </c>
+      <c r="F2379" t="s">
+        <v>1101</v>
       </c>
       <c r="H2379">
-        <v>27016</v>
+        <v>26355</v>
       </c>
     </row>
     <row r="2380" spans="1:8" x14ac:dyDescent="0.25">
@@ -55733,19 +55756,19 @@
         <v>9</v>
       </c>
       <c r="C2380" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2380" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2380" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2380" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H2380">
-        <v>27040</v>
+        <v>26993</v>
       </c>
     </row>
     <row r="2381" spans="1:8" x14ac:dyDescent="0.25">
@@ -55756,42 +55779,39 @@
         <v>9</v>
       </c>
       <c r="C2381" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2381" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2381" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2381" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H2381">
-        <v>27038</v>
+        <v>26362</v>
       </c>
     </row>
     <row r="2382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2382" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
       <c r="B2382" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C2382" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2382" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2382" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F2382" t="s">
-        <v>1099</v>
+        <v>1073</v>
       </c>
       <c r="H2382">
-        <v>27039</v>
+        <v>27016</v>
       </c>
     </row>
     <row r="2383" spans="1:8" x14ac:dyDescent="0.25">
@@ -55802,79 +55822,88 @@
         <v>9</v>
       </c>
       <c r="C2383" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2383" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2383" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F2383" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="H2383">
-        <v>27043</v>
+        <v>27040</v>
       </c>
     </row>
     <row r="2384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2384" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B2384" t="s">
         <v>9</v>
       </c>
       <c r="C2384" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2384" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2384" t="s">
-        <v>1070</v>
+        <v>1073</v>
+      </c>
+      <c r="F2384" t="s">
+        <v>1102</v>
       </c>
       <c r="H2384">
-        <v>20523</v>
+        <v>27038</v>
       </c>
     </row>
     <row r="2385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2385" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B2385" t="s">
         <v>9</v>
       </c>
       <c r="C2385" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2385" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2385" t="s">
-        <v>1070</v>
+        <v>1073</v>
+      </c>
+      <c r="F2385" t="s">
+        <v>1102</v>
       </c>
       <c r="H2385">
-        <v>27029</v>
+        <v>27039</v>
       </c>
     </row>
     <row r="2386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2386" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D2386" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E2386" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F2386" t="s">
         <v>1102</v>
       </c>
-      <c r="B2386" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2386" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D2386" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E2386" t="s">
-        <v>1070</v>
-      </c>
       <c r="H2386">
-        <v>20527</v>
+        <v>27043</v>
       </c>
     </row>
     <row r="2387" spans="1:8" x14ac:dyDescent="0.25">
@@ -55885,16 +55914,16 @@
         <v>9</v>
       </c>
       <c r="C2387" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2387" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2387" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H2387">
-        <v>26720</v>
+        <v>20523</v>
       </c>
     </row>
     <row r="2388" spans="1:8" x14ac:dyDescent="0.25">
@@ -55905,15 +55934,75 @@
         <v>9</v>
       </c>
       <c r="C2388" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D2388" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2388" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H2388">
+        <v>27029</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2389" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E2389" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H2389">
+        <v>20527</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2390" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E2390" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H2390">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2391" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E2391" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H2391">
         <v>20525</v>
       </c>
     </row>

--- a/Microsoft 365/Current Channel/outlookrssitemcontrols.xlsx
+++ b/Microsoft 365/Current Channel/outlookrssitemcontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\CCNov2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\CCJan2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B7D661-7477-4D74-A0E3-9E44006BF218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A549A9CE-F004-4EB5-8B57-0C2AE469AFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5415" windowWidth="51600" windowHeight="15465"/>
+    <workbookView xWindow="2850" yWindow="4260" windowWidth="25470" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="outlookrssitemcontrols" sheetId="1" r:id="rId1"/>
